--- a/tests/测试.xlsx
+++ b/tests/测试.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1301,4 +1303,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/tests/测试.xlsx
+++ b/tests/测试.xlsx
@@ -7,9 +7,8 @@
     <workbookView windowWidth="18352" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="测试" sheetId="1" r:id="rId1"/>
+    <sheet name="测试2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -62,6 +61,12 @@
   </si>
   <si>
     <t>赵六</t>
+  </si>
+  <si>
+    <t>田七</t>
+  </si>
+  <si>
+    <t>王八</t>
   </si>
 </sst>
 </file>
@@ -677,8 +682,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,30 +1316,66 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
